--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.3475699464718</v>
+        <v>712.144023496198</v>
       </c>
       <c r="AB2" t="n">
-        <v>844.6821806533677</v>
+        <v>974.3868705244741</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.0668988506959</v>
+        <v>881.3927551621795</v>
       </c>
       <c r="AD2" t="n">
-        <v>617347.5699464718</v>
+        <v>712144.023496198</v>
       </c>
       <c r="AE2" t="n">
-        <v>844682.1806533677</v>
+        <v>974386.8705244742</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425349210498699e-06</v>
+        <v>2.054875234610708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.32523148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>764066.8988506959</v>
+        <v>881392.7551621795</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.0392957806775</v>
+        <v>455.9356459439533</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.5642394557631</v>
+        <v>623.8312652416095</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.0233716901824</v>
+        <v>564.2936848396292</v>
       </c>
       <c r="AD3" t="n">
-        <v>387039.2957806775</v>
+        <v>455935.6459439532</v>
       </c>
       <c r="AE3" t="n">
-        <v>529564.239455763</v>
+        <v>623831.2652416094</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.976004570560558e-06</v>
+        <v>2.848735471710682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>479023.3716901824</v>
+        <v>564293.6848396292</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.6104985856516</v>
+        <v>398.5067592403763</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.9876255538074</v>
+        <v>545.2545288701056</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.9459995360591</v>
+        <v>493.2162019042794</v>
       </c>
       <c r="AD4" t="n">
-        <v>329610.4985856516</v>
+        <v>398506.7592403763</v>
       </c>
       <c r="AE4" t="n">
-        <v>450987.6255538074</v>
+        <v>545254.5288701055</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191277467164617e-06</v>
+        <v>3.159086746090538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.87152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>407945.9995360591</v>
+        <v>493216.2019042794</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.5729232237141</v>
+        <v>371.8359055915064</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.3078191819416</v>
+        <v>508.7622902727014</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.6215992459984</v>
+        <v>460.206731341433</v>
       </c>
       <c r="AD5" t="n">
-        <v>311572.9232237141</v>
+        <v>371835.9055915064</v>
       </c>
       <c r="AE5" t="n">
-        <v>426307.8191819416</v>
+        <v>508762.2902727014</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.302196315085519e-06</v>
+        <v>3.318994502004238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.20023148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>385621.5992459984</v>
+        <v>460206.731341433</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>291.1721019721462</v>
+        <v>351.520335685959</v>
       </c>
       <c r="AB6" t="n">
-        <v>398.394515524833</v>
+        <v>480.9656312682421</v>
       </c>
       <c r="AC6" t="n">
-        <v>360.3723021133565</v>
+        <v>435.0629464595035</v>
       </c>
       <c r="AD6" t="n">
-        <v>291172.1019721462</v>
+        <v>351520.335685959</v>
       </c>
       <c r="AE6" t="n">
-        <v>398394.515524833</v>
+        <v>480965.6312682421</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.373358738822649e-06</v>
+        <v>3.421586835935612e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.80671296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>360372.3021133565</v>
+        <v>435062.9464595035</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>281.4943774788567</v>
+        <v>333.3799251063293</v>
       </c>
       <c r="AB7" t="n">
-        <v>385.1530259220425</v>
+        <v>456.1451212147603</v>
       </c>
       <c r="AC7" t="n">
-        <v>348.3945616937089</v>
+        <v>412.6112710497212</v>
       </c>
       <c r="AD7" t="n">
-        <v>281494.3774788567</v>
+        <v>333379.9251063293</v>
       </c>
       <c r="AE7" t="n">
-        <v>385153.0259220425</v>
+        <v>456145.1212147602</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.425667059148983e-06</v>
+        <v>3.496997879917641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.52893518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>348394.5616937089</v>
+        <v>412611.2710497212</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>275.8431767333132</v>
+        <v>327.5581321601936</v>
       </c>
       <c r="AB8" t="n">
-        <v>377.4208037486086</v>
+        <v>448.1794872664793</v>
       </c>
       <c r="AC8" t="n">
-        <v>341.4002919522655</v>
+        <v>405.4058660256268</v>
       </c>
       <c r="AD8" t="n">
-        <v>275843.1767333132</v>
+        <v>327558.1321601936</v>
       </c>
       <c r="AE8" t="n">
-        <v>377420.8037486086</v>
+        <v>448179.4872664793</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.453764399886522e-06</v>
+        <v>3.537504816193129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.38425925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>341400.2919522655</v>
+        <v>405405.8660256268</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.1735632955319</v>
+        <v>321.8885187224123</v>
       </c>
       <c r="AB9" t="n">
-        <v>369.6633885173443</v>
+        <v>440.4220720352151</v>
       </c>
       <c r="AC9" t="n">
-        <v>334.3832335430726</v>
+        <v>398.3888076164338</v>
       </c>
       <c r="AD9" t="n">
-        <v>270173.5632955319</v>
+        <v>321888.5187224123</v>
       </c>
       <c r="AE9" t="n">
-        <v>369663.3885173444</v>
+        <v>440422.0720352151</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.476925011597279e-06</v>
+        <v>3.570894645908064e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.26851851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>334383.2335430726</v>
+        <v>398388.8076164338</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>264.1990293618416</v>
+        <v>315.913984788722</v>
       </c>
       <c r="AB10" t="n">
-        <v>361.4887676114345</v>
+        <v>432.2474511293053</v>
       </c>
       <c r="AC10" t="n">
-        <v>326.9887869832702</v>
+        <v>390.9943610566314</v>
       </c>
       <c r="AD10" t="n">
-        <v>264199.0293618416</v>
+        <v>315913.984788722</v>
       </c>
       <c r="AE10" t="n">
-        <v>361488.7676114345</v>
+        <v>432247.4511293053</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.502186359064113e-06</v>
+        <v>3.607313031606212e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.14699074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>326988.7869832703</v>
+        <v>390994.3610566314</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>259.1948766916999</v>
+        <v>310.9098321185803</v>
       </c>
       <c r="AB11" t="n">
-        <v>354.6418651605118</v>
+        <v>425.4005486783825</v>
       </c>
       <c r="AC11" t="n">
-        <v>320.7953432925757</v>
+        <v>384.8009173659369</v>
       </c>
       <c r="AD11" t="n">
-        <v>259194.8766916999</v>
+        <v>310909.8321185802</v>
       </c>
       <c r="AE11" t="n">
-        <v>354641.8651605117</v>
+        <v>425400.5486783825</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>3.630178629279478e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.07175925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>320795.3432925757</v>
+        <v>384800.9173659369</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>258.938236552571</v>
+        <v>310.6531919794513</v>
       </c>
       <c r="AB12" t="n">
-        <v>354.2907187999918</v>
+        <v>425.0494023178625</v>
       </c>
       <c r="AC12" t="n">
-        <v>320.4777098478667</v>
+        <v>384.4832839212278</v>
       </c>
       <c r="AD12" t="n">
-        <v>258938.236552571</v>
+        <v>310653.1919794513</v>
       </c>
       <c r="AE12" t="n">
-        <v>354290.7187999918</v>
+        <v>425049.4023178625</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.518256987598107e-06</v>
+        <v>3.630481484877799e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.07175925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>320477.7098478667</v>
+        <v>384483.2839212278</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.7194780321242</v>
+        <v>557.8083727275828</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.1638888719447</v>
+        <v>763.2180243344848</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.3040370217369</v>
+        <v>690.3775672752256</v>
       </c>
       <c r="AD2" t="n">
-        <v>473719.4780321242</v>
+        <v>557808.3727275828</v>
       </c>
       <c r="AE2" t="n">
-        <v>648163.8888719446</v>
+        <v>763218.0243344847</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.683020605230634e-06</v>
+        <v>2.463878852584831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.68055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>586304.037021737</v>
+        <v>690377.5672752257</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.1877830223378</v>
+        <v>385.0244965613384</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.3045151205279</v>
+        <v>526.8075022771951</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.709838589745</v>
+        <v>476.529733638832</v>
       </c>
       <c r="AD3" t="n">
-        <v>326187.7830223378</v>
+        <v>385024.4965613384</v>
       </c>
       <c r="AE3" t="n">
-        <v>446304.5151205279</v>
+        <v>526807.5022771951</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191816782129881e-06</v>
+        <v>3.208737315185932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34606481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>403709.838589745</v>
+        <v>476529.733638832</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.2615387946112</v>
+        <v>348.0129114790403</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.7803986972312</v>
+        <v>476.1666187317006</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.0076729268449</v>
+        <v>430.721944943993</v>
       </c>
       <c r="AD4" t="n">
-        <v>289261.5387946112</v>
+        <v>348012.9114790403</v>
       </c>
       <c r="AE4" t="n">
-        <v>395780.3986972312</v>
+        <v>476166.6187317006</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380503287455144e-06</v>
+        <v>3.484967260793367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>358007.6729268449</v>
+        <v>430721.944943993</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>266.2011017669373</v>
+        <v>325.0377257973868</v>
       </c>
       <c r="AB5" t="n">
-        <v>364.2280914012873</v>
+        <v>444.7309560884061</v>
       </c>
       <c r="AC5" t="n">
-        <v>329.4666735552845</v>
+        <v>402.2864578231449</v>
       </c>
       <c r="AD5" t="n">
-        <v>266201.1017669373</v>
+        <v>325037.7257973868</v>
       </c>
       <c r="AE5" t="n">
-        <v>364228.0914012872</v>
+        <v>444730.956088406</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480415318348653e-06</v>
+        <v>3.631234715435485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.67361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>329466.6735552845</v>
+        <v>402286.4578231449</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>255.505985526011</v>
+        <v>305.9252755100118</v>
       </c>
       <c r="AB6" t="n">
-        <v>349.5945615250586</v>
+        <v>418.5804584234215</v>
       </c>
       <c r="AC6" t="n">
-        <v>316.2297472322601</v>
+        <v>378.6317269528525</v>
       </c>
       <c r="AD6" t="n">
-        <v>255505.985526011</v>
+        <v>305925.2755100118</v>
       </c>
       <c r="AE6" t="n">
-        <v>349594.5615250586</v>
+        <v>418580.4584234215</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.548381577537223e-06</v>
+        <v>3.73073476206805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.33796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>316229.7472322601</v>
+        <v>378631.7269528526</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.3507917280487</v>
+        <v>298.7700817120493</v>
       </c>
       <c r="AB7" t="n">
-        <v>339.8045097058197</v>
+        <v>408.7904066041776</v>
       </c>
       <c r="AC7" t="n">
-        <v>307.3740442182221</v>
+        <v>369.7760239388131</v>
       </c>
       <c r="AD7" t="n">
-        <v>248350.7917280487</v>
+        <v>298770.0817120493</v>
       </c>
       <c r="AE7" t="n">
-        <v>339804.5097058197</v>
+        <v>408790.4066041776</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.579458076542708e-06</v>
+        <v>3.776229587546729e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>307374.0442182221</v>
+        <v>369776.0239388131</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>241.4280744282841</v>
+        <v>291.8473644122847</v>
       </c>
       <c r="AB8" t="n">
-        <v>330.332542487554</v>
+        <v>399.318439385907</v>
       </c>
       <c r="AC8" t="n">
-        <v>298.8060682572753</v>
+        <v>361.2080479778649</v>
       </c>
       <c r="AD8" t="n">
-        <v>241428.0744282841</v>
+        <v>291847.3644122847</v>
       </c>
       <c r="AE8" t="n">
-        <v>330332.542487554</v>
+        <v>399318.439385907</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.609176336955297e-06</v>
+        <v>3.819736002820921e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>298806.0682572753</v>
+        <v>361208.0479778649</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>240.6112724021077</v>
+        <v>291.0305623861083</v>
       </c>
       <c r="AB9" t="n">
-        <v>329.2149579205777</v>
+        <v>398.2008548189302</v>
       </c>
       <c r="AC9" t="n">
-        <v>297.7951443928312</v>
+        <v>360.1971241134205</v>
       </c>
       <c r="AD9" t="n">
-        <v>240611.2724021077</v>
+        <v>291030.5623861083</v>
       </c>
       <c r="AE9" t="n">
-        <v>329214.9579205777</v>
+        <v>398200.8548189302</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616239177638362e-06</v>
+        <v>3.830075735884257e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.01967592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>297795.1443928311</v>
+        <v>360197.1241134205</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.0417385671183</v>
+        <v>303.3275083607799</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.7498936534574</v>
+        <v>415.0260788044442</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.2292020487525</v>
+        <v>375.4165723361073</v>
       </c>
       <c r="AD2" t="n">
-        <v>249041.7385671183</v>
+        <v>303327.5083607798</v>
       </c>
       <c r="AE2" t="n">
-        <v>340749.8936534574</v>
+        <v>415026.0788044442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50158280167759e-06</v>
+        <v>3.870257371852748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>308229.2020487525</v>
+        <v>375416.5723361073</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.4884173620887</v>
+        <v>244.0068984215066</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.2123652087568</v>
+        <v>333.8610032447643</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.4236763187487</v>
+        <v>301.9977776720443</v>
       </c>
       <c r="AD3" t="n">
-        <v>197488.4173620887</v>
+        <v>244006.8984215066</v>
       </c>
       <c r="AE3" t="n">
-        <v>270212.3652087568</v>
+        <v>333861.0032447643</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.859202929321447e-06</v>
+        <v>4.423539851412639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>244423.6763187487</v>
+        <v>301997.7776720443</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.8617143249101</v>
+        <v>242.380195384328</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.9866383482171</v>
+        <v>331.6352763842244</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.4103697059508</v>
+        <v>299.9844710592465</v>
       </c>
       <c r="AD4" t="n">
-        <v>195861.7143249101</v>
+        <v>242380.195384328</v>
       </c>
       <c r="AE4" t="n">
-        <v>267986.6383482171</v>
+        <v>331635.2763842244</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877632581602127e-06</v>
+        <v>4.452052798316555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.19328703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>242410.3697059508</v>
+        <v>299984.4710592465</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.619423268635</v>
+        <v>377.6205551619996</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.1079308286125</v>
+        <v>516.6771030157779</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.1544721670923</v>
+        <v>467.3661654648199</v>
       </c>
       <c r="AD2" t="n">
-        <v>313619.4232686351</v>
+        <v>377620.5551619995</v>
       </c>
       <c r="AE2" t="n">
-        <v>429107.9308286125</v>
+        <v>516677.1030157779</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178248301616743e-06</v>
+        <v>3.291973519996814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>388154.4721670923</v>
+        <v>467366.1654648199</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.5402052205435</v>
+        <v>292.6051229481868</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.6447441999559</v>
+        <v>400.3552380446755</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.7565440518596</v>
+        <v>362.1458960277965</v>
       </c>
       <c r="AD3" t="n">
-        <v>236540.2052205435</v>
+        <v>292605.1229481868</v>
       </c>
       <c r="AE3" t="n">
-        <v>323644.744199956</v>
+        <v>400355.2380446755</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.591940328227111e-06</v>
+        <v>3.917183784604548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.95138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>292756.5440518596</v>
+        <v>362145.8960277966</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.7716954471538</v>
+        <v>265.8152371716034</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.9648411198038</v>
+        <v>363.7001344388069</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.5274948796987</v>
+        <v>328.989104064311</v>
       </c>
       <c r="AD4" t="n">
-        <v>217771.6954471538</v>
+        <v>265815.2371716034</v>
       </c>
       <c r="AE4" t="n">
-        <v>297964.8411198038</v>
+        <v>363700.1344388069</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743718266491424e-06</v>
+        <v>4.146564867245574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.2337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>269527.4948796987</v>
+        <v>328989.104064311</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>211.3422586880902</v>
+        <v>259.3858004125398</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.1678020993264</v>
+        <v>354.9030954183251</v>
       </c>
       <c r="AC5" t="n">
-        <v>261.5700329166111</v>
+        <v>321.0316421012222</v>
       </c>
       <c r="AD5" t="n">
-        <v>211342.2586880902</v>
+        <v>259385.8004125397</v>
       </c>
       <c r="AE5" t="n">
-        <v>289167.8020993264</v>
+        <v>354903.095418325</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.791043752782473e-06</v>
+        <v>4.218087589230701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.02546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>261570.0329166111</v>
+        <v>321031.6421012222</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.9187044146775</v>
+        <v>247.2716637460749</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.2740794045764</v>
+        <v>338.3279991931171</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.9068690193904</v>
+        <v>306.0384497965561</v>
       </c>
       <c r="AD2" t="n">
-        <v>201918.7044146775</v>
+        <v>247271.6637460749</v>
       </c>
       <c r="AE2" t="n">
-        <v>276274.0794045763</v>
+        <v>338327.9991931171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795367231753561e-06</v>
+        <v>4.418044338383551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>249906.8690193904</v>
+        <v>306038.449796556</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.7749244859811</v>
+        <v>229.0425429628068</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.4489592590687</v>
+        <v>313.3861119254119</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.4510234982871</v>
+        <v>283.4769812435139</v>
       </c>
       <c r="AD3" t="n">
-        <v>183774.9244859811</v>
+        <v>229042.5429628068</v>
       </c>
       <c r="AE3" t="n">
-        <v>251448.9592590687</v>
+        <v>313386.1119254119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.923056146454919e-06</v>
+        <v>4.61985513456892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>227451.0234982871</v>
+        <v>283476.9812435139</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.5048652007695</v>
+        <v>593.0760995245806</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.7587902190588</v>
+        <v>811.4728840404332</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.3565477841462</v>
+        <v>734.0270508969594</v>
       </c>
       <c r="AD2" t="n">
-        <v>508504.8652007695</v>
+        <v>593076.0995245806</v>
       </c>
       <c r="AE2" t="n">
-        <v>695758.7902190589</v>
+        <v>811472.8840404332</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615945099253361e-06</v>
+        <v>2.35586420383033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.28240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>629356.5477841462</v>
+        <v>734027.0508969594</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.8846651944905</v>
+        <v>406.5927855594416</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.6769494553754</v>
+        <v>556.3181868101549</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.4242721740395</v>
+        <v>503.223959858472</v>
       </c>
       <c r="AD3" t="n">
-        <v>338884.6651944905</v>
+        <v>406592.7855594415</v>
       </c>
       <c r="AE3" t="n">
-        <v>463676.9494553754</v>
+        <v>556318.1868101549</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.133900380458749e-06</v>
+        <v>3.110984106567403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.60069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>419424.2721740394</v>
+        <v>503223.959858472</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.0446846434598</v>
+        <v>358.19337100995</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.1661304495598</v>
+        <v>490.0959725920678</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.1158892277238</v>
+        <v>443.3219008218977</v>
       </c>
       <c r="AD4" t="n">
-        <v>299044.6846434599</v>
+        <v>358193.37100995</v>
       </c>
       <c r="AE4" t="n">
-        <v>409166.1304495598</v>
+        <v>490095.9725920678</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.333490840690389e-06</v>
+        <v>3.401964301936045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.35069444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>370115.8892277238</v>
+        <v>443321.9008218977</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.5277225407855</v>
+        <v>334.7616602532963</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.9891854055355</v>
+        <v>458.0356722006928</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.0098666580753</v>
+        <v>414.3213905029615</v>
       </c>
       <c r="AD5" t="n">
-        <v>275527.7225407856</v>
+        <v>334761.6602532963</v>
       </c>
       <c r="AE5" t="n">
-        <v>376989.1854055355</v>
+        <v>458035.6722006928</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430943965324667e-06</v>
+        <v>3.544039876151648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>341009.8666580753</v>
+        <v>414321.3905029615</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.152477115956</v>
+        <v>315.9123216845774</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.79331689176</v>
+        <v>432.2451755968436</v>
       </c>
       <c r="AC6" t="n">
-        <v>328.1688319112279</v>
+        <v>390.9923026977942</v>
       </c>
       <c r="AD6" t="n">
-        <v>265152.477115956</v>
+        <v>315912.3216845774</v>
       </c>
       <c r="AE6" t="n">
-        <v>362793.31689176</v>
+        <v>432245.1755968436</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.497653590419623e-06</v>
+        <v>3.641294923915809e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.47685185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>328168.8319112279</v>
+        <v>390992.3026977942</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.3933782734253</v>
+        <v>308.1532228420499</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.176975547961</v>
+        <v>421.6288342532155</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.5656992852583</v>
+        <v>381.3891700718733</v>
       </c>
       <c r="AD7" t="n">
-        <v>257393.3782734253</v>
+        <v>308153.2228420499</v>
       </c>
       <c r="AE7" t="n">
-        <v>352176.975547961</v>
+        <v>421628.8342532155</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.538088560917051e-06</v>
+        <v>3.700244512996428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27430555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>318565.6992852584</v>
+        <v>381389.1700718732</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.607190337625</v>
+        <v>300.3670349062495</v>
       </c>
       <c r="AB8" t="n">
-        <v>341.5235697118358</v>
+        <v>410.9754284170847</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.9290395499805</v>
+        <v>371.7525103365939</v>
       </c>
       <c r="AD8" t="n">
-        <v>249607.190337625</v>
+        <v>300367.0349062495</v>
       </c>
       <c r="AE8" t="n">
-        <v>341523.5697118358</v>
+        <v>410975.4284170847</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.56899358497234e-06</v>
+        <v>3.745300523825022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>308929.0395499805</v>
+        <v>371752.5103365939</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>244.7885208745447</v>
+        <v>295.5483654431691</v>
       </c>
       <c r="AB9" t="n">
-        <v>334.9304535677593</v>
+        <v>404.3823122730049</v>
       </c>
       <c r="AC9" t="n">
-        <v>302.9651611571961</v>
+        <v>365.7886319438085</v>
       </c>
       <c r="AD9" t="n">
-        <v>244788.5208745447</v>
+        <v>295548.3654431691</v>
       </c>
       <c r="AE9" t="n">
-        <v>334930.4535677594</v>
+        <v>404382.3122730049</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.59219927376647e-06</v>
+        <v>3.77913177934266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.01967592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>302965.161157196</v>
+        <v>365788.6319438085</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>245.6002478524935</v>
+        <v>296.360092421118</v>
       </c>
       <c r="AB10" t="n">
-        <v>336.0410942298553</v>
+        <v>405.4929529351015</v>
       </c>
       <c r="AC10" t="n">
-        <v>303.9698038332959</v>
+        <v>366.7932746199084</v>
       </c>
       <c r="AD10" t="n">
-        <v>245600.2478524935</v>
+        <v>296360.092421118</v>
       </c>
       <c r="AE10" t="n">
-        <v>336041.0942298553</v>
+        <v>405492.9529351015</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.591176285165336e-06</v>
+        <v>3.777640378287358e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.02546296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>303969.8038332959</v>
+        <v>366793.2746199084</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.3539829542799</v>
+        <v>228.3161759670142</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.2952996665657</v>
+        <v>312.3922645567186</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.2664149265387</v>
+        <v>282.5779852728149</v>
       </c>
       <c r="AD2" t="n">
-        <v>176353.9829542799</v>
+        <v>228316.1759670142</v>
       </c>
       <c r="AE2" t="n">
-        <v>241295.2996665657</v>
+        <v>312392.2645567186</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932251001756461e-06</v>
+        <v>4.698154883765393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>218266.4149265387</v>
+        <v>282577.9852728149</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.9732921342814</v>
+        <v>228.9354851470156</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.142665808636</v>
+        <v>313.2396306987889</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.0329096332959</v>
+        <v>283.3444799795721</v>
       </c>
       <c r="AD3" t="n">
-        <v>176973.2921342814</v>
+        <v>228935.4851470156</v>
       </c>
       <c r="AE3" t="n">
-        <v>242142.665808636</v>
+        <v>313239.6306987889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.936181546751893e-06</v>
+        <v>4.704452540123969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>219032.9096332959</v>
+        <v>283344.4799795721</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.0081503925049</v>
+        <v>459.0217249356894</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.7851367278548</v>
+        <v>628.0537746662991</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.5095026261306</v>
+        <v>568.1132038911556</v>
       </c>
       <c r="AD2" t="n">
-        <v>385008.1503925049</v>
+        <v>459021.7249356894</v>
       </c>
       <c r="AE2" t="n">
-        <v>526785.1367278548</v>
+        <v>628053.7746662991</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908734668612529e-06</v>
+        <v>2.834171687814492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>476509.5026261306</v>
+        <v>568113.2038911557</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.0544268690282</v>
+        <v>338.6869166228385</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.551066088424</v>
+        <v>463.4063811355899</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.8500520617551</v>
+        <v>419.1795265149491</v>
       </c>
       <c r="AD3" t="n">
-        <v>281054.4268690282</v>
+        <v>338686.9166228385</v>
       </c>
       <c r="AE3" t="n">
-        <v>384551.0660884239</v>
+        <v>463406.3811355899</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.376360388474962e-06</v>
+        <v>3.528522556754997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.63425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>347850.0520617551</v>
+        <v>419179.5265149492</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.212301999732</v>
+        <v>307.7594508989739</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.3515101835727</v>
+        <v>421.0900581087067</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.6779625451168</v>
+        <v>380.9018139664194</v>
       </c>
       <c r="AD4" t="n">
-        <v>250212.301999732</v>
+        <v>307759.4508989739</v>
       </c>
       <c r="AE4" t="n">
-        <v>342351.5101835727</v>
+        <v>421090.0581087067</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548879237962155e-06</v>
+        <v>3.784685996792659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>309677.9625451168</v>
+        <v>380901.8139664194</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.2747748179351</v>
+        <v>286.5888004037548</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.6498147300301</v>
+        <v>392.1234401179655</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.6656920611692</v>
+        <v>354.6997293418108</v>
       </c>
       <c r="AD5" t="n">
-        <v>237274.7748179351</v>
+        <v>286588.8004037548</v>
       </c>
       <c r="AE5" t="n">
-        <v>324649.8147300301</v>
+        <v>392123.4401179655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.637881499702791e-06</v>
+        <v>3.916840399667379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>293665.6920611692</v>
+        <v>354699.7293418108</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.2907066875923</v>
+        <v>276.6047322734119</v>
       </c>
       <c r="AB6" t="n">
-        <v>310.9891722481026</v>
+        <v>378.4627976360309</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.3088021248803</v>
+        <v>342.34283940552</v>
       </c>
       <c r="AD6" t="n">
-        <v>227290.7066875923</v>
+        <v>276604.7322734119</v>
       </c>
       <c r="AE6" t="n">
-        <v>310989.1722481026</v>
+        <v>378462.7976360309</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690107355177012e-06</v>
+        <v>3.994387605882544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.04282407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>281308.8021248804</v>
+        <v>342342.8394055199</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>226.6941029553049</v>
+        <v>276.0081285411245</v>
       </c>
       <c r="AB7" t="n">
-        <v>310.1728727012884</v>
+        <v>377.6464980892162</v>
       </c>
       <c r="AC7" t="n">
-        <v>280.5704090611302</v>
+        <v>341.6044463417696</v>
       </c>
       <c r="AD7" t="n">
-        <v>226694.1029553049</v>
+        <v>276008.1285411245</v>
       </c>
       <c r="AE7" t="n">
-        <v>310172.8727012884</v>
+        <v>377646.4980892162</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.695649005436334e-06</v>
+        <v>4.00261608757097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.01967592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>280570.4090611302</v>
+        <v>341604.4463417697</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.7276736802759</v>
+        <v>522.8689774290756</v>
       </c>
       <c r="AB2" t="n">
-        <v>612.6007554802663</v>
+        <v>715.4124022697345</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.1349991677893</v>
+        <v>647.134446684723</v>
       </c>
       <c r="AD2" t="n">
-        <v>447727.6736802759</v>
+        <v>522868.9774290756</v>
       </c>
       <c r="AE2" t="n">
-        <v>612600.7554802663</v>
+        <v>715412.4022697344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757197788482958e-06</v>
+        <v>2.583858272439814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.06134259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>554134.9991677892</v>
+        <v>647134.446684723</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.2667105187543</v>
+        <v>371.6910020242606</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.6253336836372</v>
+        <v>508.5640268193014</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.7179334163042</v>
+        <v>460.0273898737611</v>
       </c>
       <c r="AD3" t="n">
-        <v>313266.7105187543</v>
+        <v>371691.0020242606</v>
       </c>
       <c r="AE3" t="n">
-        <v>428625.3336836372</v>
+        <v>508564.0268193014</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.253440667168117e-06</v>
+        <v>3.313554881230208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.08564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>387717.9334163042</v>
+        <v>460027.3898737611</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.0556848629257</v>
+        <v>329.2068111013569</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.8162990974005</v>
+        <v>450.4352825283605</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.3762873940853</v>
+        <v>407.4463713537426</v>
       </c>
       <c r="AD4" t="n">
-        <v>279055.6848629257</v>
+        <v>329206.8111013569</v>
       </c>
       <c r="AE4" t="n">
-        <v>381816.2990974005</v>
+        <v>450435.2825283605</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435034408472997e-06</v>
+        <v>3.580578032391238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>345376.2873940853</v>
+        <v>407446.3713537426</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.5493845522691</v>
+        <v>314.9735865492275</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.0221861043004</v>
+        <v>430.9607567705867</v>
       </c>
       <c r="AC5" t="n">
-        <v>317.5211213253432</v>
+        <v>389.8304670016221</v>
       </c>
       <c r="AD5" t="n">
-        <v>256549.3845522691</v>
+        <v>314973.5865492275</v>
       </c>
       <c r="AE5" t="n">
-        <v>351022.1861043004</v>
+        <v>430960.7567705867</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530794804824046e-06</v>
+        <v>3.721388187005299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.54050925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>317521.1213253433</v>
+        <v>389830.4670016221</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>244.2201695888379</v>
+        <v>294.2859549727006</v>
       </c>
       <c r="AB6" t="n">
-        <v>334.1528102647667</v>
+        <v>402.6550265736906</v>
       </c>
       <c r="AC6" t="n">
-        <v>302.2617350396116</v>
+        <v>364.226195967376</v>
       </c>
       <c r="AD6" t="n">
-        <v>244220.1695888379</v>
+        <v>294285.9549727006</v>
       </c>
       <c r="AE6" t="n">
-        <v>334152.8102647667</v>
+        <v>402655.0265736906</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.611253282170545e-06</v>
+        <v>3.839697749902681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.15277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>302261.7350396116</v>
+        <v>364226.195967376</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.2554612646635</v>
+        <v>288.321246648526</v>
       </c>
       <c r="AB7" t="n">
-        <v>325.9916331912758</v>
+        <v>394.4938495001956</v>
       </c>
       <c r="AC7" t="n">
-        <v>294.8794492517281</v>
+        <v>356.8439101794913</v>
       </c>
       <c r="AD7" t="n">
-        <v>238255.4612646635</v>
+        <v>288321.2466485261</v>
       </c>
       <c r="AE7" t="n">
-        <v>325991.6331912758</v>
+        <v>394493.8495001956</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62984593644489e-06</v>
+        <v>3.867037178547679e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.07175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>294879.4492517281</v>
+        <v>356843.9101794913</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.6790431985309</v>
+        <v>285.7448285823935</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.4664643296519</v>
+        <v>390.9686806385699</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.6907175586509</v>
+        <v>353.6551784864135</v>
       </c>
       <c r="AD8" t="n">
-        <v>235679.0431985309</v>
+        <v>285744.8285823935</v>
       </c>
       <c r="AE8" t="n">
-        <v>322466.4643296519</v>
+        <v>390968.6806385699</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.6447090907468e-06</v>
+        <v>3.88889259200725e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.00231481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>291690.7175586509</v>
+        <v>353655.1784864136</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.3048134002413</v>
+        <v>670.6214198372907</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.5256704681876</v>
+        <v>917.5738123503691</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.2698871814325</v>
+        <v>830.0018555225831</v>
       </c>
       <c r="AD2" t="n">
-        <v>576304.8134002413</v>
+        <v>670621.4198372907</v>
       </c>
       <c r="AE2" t="n">
-        <v>788525.6704681877</v>
+        <v>917573.8123503691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485923116866822e-06</v>
+        <v>2.14979271250154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61921296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>713269.8871814326</v>
+        <v>830001.8555225831</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.2283649495353</v>
+        <v>433.3024209163906</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.6675145973279</v>
+        <v>592.863488251481</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.9301237305164</v>
+        <v>536.2814290218909</v>
       </c>
       <c r="AD3" t="n">
-        <v>373228.3649495353</v>
+        <v>433302.4209163906</v>
       </c>
       <c r="AE3" t="n">
-        <v>510667.5145973279</v>
+        <v>592863.4882514811</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.028592890318024e-06</v>
+        <v>2.934912420929103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>461930.1237305164</v>
+        <v>536281.4290218909</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.7414482994606</v>
+        <v>379.8154147577649</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.4843555604707</v>
+        <v>519.6802067450757</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.731462678928</v>
+        <v>470.0826571890759</v>
       </c>
       <c r="AD4" t="n">
-        <v>319741.4482994606</v>
+        <v>379815.4147577649</v>
       </c>
       <c r="AE4" t="n">
-        <v>437484.3555604707</v>
+        <v>519680.2067450756</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234840225930733e-06</v>
+        <v>3.233305395666571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.70949074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>395731.462678928</v>
+        <v>470082.6571890759</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.0121908910382</v>
+        <v>353.5042516495643</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.2264034146323</v>
+        <v>483.680112613842</v>
       </c>
       <c r="AC5" t="n">
-        <v>373.7886554396388</v>
+        <v>437.5183615152778</v>
       </c>
       <c r="AD5" t="n">
-        <v>302012.1908910382</v>
+        <v>353504.2516495642</v>
       </c>
       <c r="AE5" t="n">
-        <v>413226.4034146323</v>
+        <v>483680.1126138419</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.346910454239795e-06</v>
+        <v>3.395445520799842e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>373788.6554396388</v>
+        <v>437518.3615152778</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>282.7772237666188</v>
+        <v>342.7658493703514</v>
       </c>
       <c r="AB6" t="n">
-        <v>386.9082728081425</v>
+        <v>468.9873568705496</v>
       </c>
       <c r="AC6" t="n">
-        <v>349.982290280504</v>
+        <v>424.227861758713</v>
       </c>
       <c r="AD6" t="n">
-        <v>282777.2237666188</v>
+        <v>342765.8493703514</v>
       </c>
       <c r="AE6" t="n">
-        <v>386908.2728081425</v>
+        <v>468987.3568705496</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.410701018770934e-06</v>
+        <v>3.48773595574816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>349982.290280504</v>
+        <v>424227.861758713</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>271.9979499149836</v>
+        <v>323.4046698189381</v>
       </c>
       <c r="AB7" t="n">
-        <v>372.1595947763354</v>
+        <v>442.4965368533474</v>
       </c>
       <c r="AC7" t="n">
-        <v>336.641205380153</v>
+        <v>400.2652884238532</v>
       </c>
       <c r="AD7" t="n">
-        <v>271997.9499149836</v>
+        <v>323404.6698189381</v>
       </c>
       <c r="AE7" t="n">
-        <v>372159.5947763354</v>
+        <v>442496.5368533474</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.474544521529899e-06</v>
+        <v>3.58010298026905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.37847222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>336641.205380153</v>
+        <v>400265.2884238532</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>267.5977500835808</v>
+        <v>319.0044699875353</v>
       </c>
       <c r="AB8" t="n">
-        <v>366.1390472438941</v>
+        <v>436.4759893209061</v>
       </c>
       <c r="AC8" t="n">
-        <v>331.1952504543164</v>
+        <v>394.8193334980165</v>
       </c>
       <c r="AD8" t="n">
-        <v>267597.7500835808</v>
+        <v>319004.4699875353</v>
       </c>
       <c r="AE8" t="n">
-        <v>366139.0472438941</v>
+        <v>436475.9893209061</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.491431816206606e-06</v>
+        <v>3.604535053919269e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.2974537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>331195.2504543163</v>
+        <v>394819.3334980165</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.5160603146318</v>
+        <v>312.9227802185864</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.8178109968015</v>
+        <v>428.1547530738135</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.6681813157178</v>
+        <v>387.2922643594181</v>
       </c>
       <c r="AD9" t="n">
-        <v>261516.0603146318</v>
+        <v>312922.7802185863</v>
       </c>
       <c r="AE9" t="n">
-        <v>357817.8109968015</v>
+        <v>428154.7530738135</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.515148142272955e-06</v>
+        <v>3.638847182431175e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.18171296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>323668.1813157178</v>
+        <v>387292.2643594181</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>255.3180827578931</v>
+        <v>306.7248026618507</v>
       </c>
       <c r="AB10" t="n">
-        <v>349.3374646680347</v>
+        <v>419.6744067452162</v>
       </c>
       <c r="AC10" t="n">
-        <v>315.9971873384328</v>
+        <v>379.6212703821812</v>
       </c>
       <c r="AD10" t="n">
-        <v>255318.0827578931</v>
+        <v>306724.8026618508</v>
       </c>
       <c r="AE10" t="n">
-        <v>349337.4646680348</v>
+        <v>419674.4067452162</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.53955266530105e-06</v>
+        <v>3.674154975386507e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.06597222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>315997.1873384328</v>
+        <v>379621.2703821812</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.449499764503</v>
+        <v>304.8562196684607</v>
       </c>
       <c r="AB11" t="n">
-        <v>346.7807869804162</v>
+        <v>417.1177290575963</v>
       </c>
       <c r="AC11" t="n">
-        <v>313.684515381</v>
+        <v>377.308598424748</v>
       </c>
       <c r="AD11" t="n">
-        <v>253449.499764503</v>
+        <v>304856.2196684607</v>
       </c>
       <c r="AE11" t="n">
-        <v>346780.7869804162</v>
+        <v>417117.7290575963</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.545640561501117e-06</v>
+        <v>3.682962776232197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>313684.5153810001</v>
+        <v>377308.5984247481</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.0716432611487</v>
+        <v>406.7632446507958</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.0915605106354</v>
+        <v>556.5514164590703</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.467383507534</v>
+        <v>503.4349303970347</v>
       </c>
       <c r="AD2" t="n">
-        <v>334071.6432611487</v>
+        <v>406763.2446507958</v>
       </c>
       <c r="AE2" t="n">
-        <v>457091.5605106354</v>
+        <v>556551.4164590703</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.081402304447758e-06</v>
+        <v>3.1256098162058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>413467.3835075339</v>
+        <v>503434.9303970347</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.3804722635453</v>
+        <v>304.9554171712932</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.7910728589846</v>
+        <v>417.2534554572566</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.3120652037907</v>
+        <v>377.431371287318</v>
       </c>
       <c r="AD3" t="n">
-        <v>256380.4722635453</v>
+        <v>304955.4171712932</v>
       </c>
       <c r="AE3" t="n">
-        <v>350791.0728589846</v>
+        <v>417253.4554572566</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519869575802683e-06</v>
+        <v>3.784049371357317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15393518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>317312.0652037907</v>
+        <v>377431.3712873179</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.984695372823</v>
+        <v>277.4742994259988</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.3069623007405</v>
+        <v>379.6525777767956</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.405385547934</v>
+        <v>343.4190685995169</v>
       </c>
       <c r="AD4" t="n">
-        <v>228984.695372823</v>
+        <v>277474.2994259988</v>
       </c>
       <c r="AE4" t="n">
-        <v>313306.9623007405</v>
+        <v>379652.5777767956</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676964106278984e-06</v>
+        <v>4.0199558107226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.37847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>283405.385547934</v>
+        <v>343419.0685995169</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.2839678726249</v>
+        <v>263.7839507958768</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.6150695664547</v>
+        <v>360.9208388055074</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.5472453833658</v>
+        <v>326.4750605054877</v>
       </c>
       <c r="AD5" t="n">
-        <v>207283.9678726249</v>
+        <v>263783.9507958767</v>
       </c>
       <c r="AE5" t="n">
-        <v>283615.0695664547</v>
+        <v>360920.8388055074</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.769514146836659e-06</v>
+        <v>4.158936782656359e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.96759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>256547.2453833658</v>
+        <v>326475.0605054877</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>217.4467543460705</v>
+        <v>265.9363583992461</v>
       </c>
       <c r="AB6" t="n">
-        <v>297.5202423699121</v>
+        <v>363.8658578459591</v>
       </c>
       <c r="AC6" t="n">
-        <v>269.1253280104983</v>
+        <v>329.1390110620789</v>
       </c>
       <c r="AD6" t="n">
-        <v>217446.7543460705</v>
+        <v>265936.3583992461</v>
       </c>
       <c r="AE6" t="n">
-        <v>297520.2423699121</v>
+        <v>363865.8578459591</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746319365632538e-06</v>
+        <v>4.124105536596227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.06597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>269125.3280104983</v>
+        <v>329139.0110620789</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.4810766766068</v>
+        <v>322.4031692751493</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.9794095412047</v>
+        <v>441.1262396262497</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.0508483499187</v>
+        <v>399.0257704408855</v>
       </c>
       <c r="AD2" t="n">
-        <v>267481.0766766068</v>
+        <v>322403.1692751492</v>
       </c>
       <c r="AE2" t="n">
-        <v>365979.4095412047</v>
+        <v>441126.2396262498</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386298591528288e-06</v>
+        <v>3.659977706617555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>331050.8483499187</v>
+        <v>399025.7704408855</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.2287909332267</v>
+        <v>258.2926915396912</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.0125505112781</v>
+        <v>353.4074556339338</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.429598322229</v>
+        <v>319.6787440787097</v>
       </c>
       <c r="AD3" t="n">
-        <v>211228.7909332267</v>
+        <v>258292.6915396913</v>
       </c>
       <c r="AE3" t="n">
-        <v>289012.550511278</v>
+        <v>353407.4556339338</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762319592088358e-06</v>
+        <v>4.236698693737817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>261429.5983222291</v>
+        <v>319678.7440787096</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.0533958583663</v>
+        <v>248.1172964648277</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.0901260631126</v>
+        <v>339.4850311855968</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.8359105231466</v>
+        <v>307.0850562795783</v>
       </c>
       <c r="AD4" t="n">
-        <v>201053.3958583663</v>
+        <v>248117.2964648277</v>
       </c>
       <c r="AE4" t="n">
-        <v>275090.1260631126</v>
+        <v>339485.0311855968</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845362783073542e-06</v>
+        <v>4.364065917928108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>248835.9105231466</v>
+        <v>307085.0562795784</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.036504481088</v>
+        <v>275.7143251117306</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.8001409901253</v>
+        <v>377.2445032754269</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.8058819202933</v>
+        <v>341.2408173488051</v>
       </c>
       <c r="AD2" t="n">
-        <v>222036.504481088</v>
+        <v>275714.3251117306</v>
       </c>
       <c r="AE2" t="n">
-        <v>303800.1409901253</v>
+        <v>377244.5032754269</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636375115254907e-06</v>
+        <v>4.119284114122916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.5474537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>274805.8819202933</v>
+        <v>341240.8173488051</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.4990555612475</v>
+        <v>235.4233647557747</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.2809679270845</v>
+        <v>322.1166338045363</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.5355562513232</v>
+        <v>291.3742743678619</v>
       </c>
       <c r="AD3" t="n">
-        <v>189499.0555612475</v>
+        <v>235423.3647557747</v>
       </c>
       <c r="AE3" t="n">
-        <v>259280.9679270845</v>
+        <v>322116.6338045363</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.902913133110384e-06</v>
+        <v>4.535744509462262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>234535.5562513232</v>
+        <v>291374.2743678619</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.8721161851863</v>
+        <v>219.6227426487249</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.6359882946307</v>
+        <v>300.4975255634312</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.6700273065915</v>
+        <v>271.8184634746721</v>
       </c>
       <c r="AD2" t="n">
-        <v>175872.1161851863</v>
+        <v>219622.7426487249</v>
       </c>
       <c r="AE2" t="n">
-        <v>240635.9882946307</v>
+        <v>300497.5255634312</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.914748976279003e-06</v>
+        <v>4.750096840606796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>217670.0273065915</v>
+        <v>271818.4634746721</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.0323941590706</v>
+        <v>490.7071549120614</v>
       </c>
       <c r="AB2" t="n">
-        <v>569.2338757423076</v>
+        <v>671.4071778224854</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.9069935662233</v>
+        <v>607.3290190969992</v>
       </c>
       <c r="AD2" t="n">
-        <v>416032.3941590706</v>
+        <v>490707.1549120614</v>
       </c>
       <c r="AE2" t="n">
-        <v>569233.8757423076</v>
+        <v>671407.1778224854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.830465140082464e-06</v>
+        <v>2.704294061755711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>514906.9935662233</v>
+        <v>607329.0190969992</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.8748198639208</v>
+        <v>350.9551893384692</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.724249262971</v>
+        <v>480.1923731031094</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.4796893333284</v>
+        <v>434.3634869683763</v>
       </c>
       <c r="AD3" t="n">
-        <v>292874.8198639209</v>
+        <v>350955.1893384692</v>
       </c>
       <c r="AE3" t="n">
-        <v>400724.249262971</v>
+        <v>480192.3731031094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.313271439400327e-06</v>
+        <v>3.417582820789234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.8599537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>362479.6893333284</v>
+        <v>434363.4869683763</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.6716302334331</v>
+        <v>318.6666588534098</v>
       </c>
       <c r="AB4" t="n">
-        <v>356.6624245060794</v>
+        <v>436.0137812240202</v>
       </c>
       <c r="AC4" t="n">
-        <v>322.6230632900752</v>
+        <v>394.4012378931843</v>
       </c>
       <c r="AD4" t="n">
-        <v>260671.6302334331</v>
+        <v>318666.6588534098</v>
       </c>
       <c r="AE4" t="n">
-        <v>356662.4245060794</v>
+        <v>436013.7812240202</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.488479829113773e-06</v>
+        <v>3.676432332586278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>322623.0632900752</v>
+        <v>394401.2378931843</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.0725553351626</v>
+        <v>296.7704778244723</v>
       </c>
       <c r="AB5" t="n">
-        <v>338.055570281264</v>
+        <v>406.054460348897</v>
       </c>
       <c r="AC5" t="n">
-        <v>305.7920211176937</v>
+        <v>367.3011925542119</v>
       </c>
       <c r="AD5" t="n">
-        <v>247072.5553351626</v>
+        <v>296770.4778244723</v>
       </c>
       <c r="AE5" t="n">
-        <v>338055.570281264</v>
+        <v>406054.460348897</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583091251696943e-06</v>
+        <v>3.816209432222494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>305792.0211176937</v>
+        <v>367301.1925542119</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.8739100625539</v>
+        <v>287.5718325518635</v>
       </c>
       <c r="AB6" t="n">
-        <v>325.4695780036987</v>
+        <v>393.4684680713252</v>
       </c>
       <c r="AC6" t="n">
-        <v>294.4072182785441</v>
+        <v>355.9163897150605</v>
       </c>
       <c r="AD6" t="n">
-        <v>237873.9100625539</v>
+        <v>287571.8325518635</v>
       </c>
       <c r="AE6" t="n">
-        <v>325469.5780036987</v>
+        <v>393468.4680713252</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.634385266516624e-06</v>
+        <v>3.891990225116601e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.17013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>294407.2182785441</v>
+        <v>355916.3897150605</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>231.1891226360587</v>
+        <v>280.8870451253682</v>
       </c>
       <c r="AB7" t="n">
-        <v>316.3231569347652</v>
+        <v>384.322047002387</v>
       </c>
       <c r="AC7" t="n">
-        <v>286.1337187993441</v>
+        <v>347.6428902358591</v>
       </c>
       <c r="AD7" t="n">
-        <v>231189.1226360587</v>
+        <v>280887.0451253682</v>
       </c>
       <c r="AE7" t="n">
-        <v>316323.1569347652</v>
+        <v>384322.047002387</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663023501572537e-06</v>
+        <v>3.934299803870656e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>286133.7187993441</v>
+        <v>347642.8902358591</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>231.2095909473709</v>
+        <v>280.9075134366803</v>
       </c>
       <c r="AB8" t="n">
-        <v>316.3511625813006</v>
+        <v>384.3500526489224</v>
       </c>
       <c r="AC8" t="n">
-        <v>286.1590516262804</v>
+        <v>347.6682230627953</v>
       </c>
       <c r="AD8" t="n">
-        <v>231209.5909473709</v>
+        <v>280907.5134366803</v>
       </c>
       <c r="AE8" t="n">
-        <v>316351.1625813006</v>
+        <v>384350.0526489224</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.670778536210502e-06</v>
+        <v>3.9457569431851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.00231481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>286159.0516262804</v>
+        <v>347668.2230627954</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.3334290920704</v>
+        <v>630.9815586307003</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.2033031616146</v>
+        <v>863.336805460259</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.0365317721861</v>
+        <v>780.9411524479478</v>
       </c>
       <c r="AD2" t="n">
-        <v>537333.4290920704</v>
+        <v>630981.5586307003</v>
       </c>
       <c r="AE2" t="n">
-        <v>735203.3031616146</v>
+        <v>863336.8054602591</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549205896168159e-06</v>
+        <v>2.249708801244872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>665036.531772186</v>
+        <v>780941.1524479479</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.1706397695801</v>
+        <v>420.3171616406617</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.8554060048439</v>
+        <v>575.0964836412206</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.8678023440506</v>
+        <v>520.210082395486</v>
       </c>
       <c r="AD3" t="n">
-        <v>352170.6397695802</v>
+        <v>420317.1616406617</v>
       </c>
       <c r="AE3" t="n">
-        <v>481855.4060048439</v>
+        <v>575096.4836412206</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.077386730078642e-06</v>
+        <v>3.016716642898664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86689814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>435867.8023440506</v>
+        <v>520210.082395486</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.9036670982312</v>
+        <v>369.6065469831777</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.0238693086729</v>
+        <v>505.7119834724256</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.5556263430908</v>
+        <v>457.4475415410431</v>
       </c>
       <c r="AD4" t="n">
-        <v>309903.6670982311</v>
+        <v>369606.5469831777</v>
       </c>
       <c r="AE4" t="n">
-        <v>424023.869308673</v>
+        <v>505711.9834724256</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279104301715602e-06</v>
+        <v>3.309644650337743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.55324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>383555.6263430908</v>
+        <v>457447.5415410431</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.7992268452289</v>
+        <v>344.4167658756039</v>
       </c>
       <c r="AB5" t="n">
-        <v>389.674866624777</v>
+        <v>471.246213666332</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.4848442662177</v>
+        <v>426.2711364322313</v>
       </c>
       <c r="AD5" t="n">
-        <v>284799.2268452289</v>
+        <v>344416.7658756039</v>
       </c>
       <c r="AE5" t="n">
-        <v>389674.866624777</v>
+        <v>471246.213666332</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38516749696372e-06</v>
+        <v>3.463666336175649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.95138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>352484.8442662177</v>
+        <v>426271.1364322313</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.5988255404825</v>
+        <v>333.2163645708574</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.349983432791</v>
+        <v>455.9213304743459</v>
       </c>
       <c r="AC6" t="n">
-        <v>338.6225464174663</v>
+        <v>412.4088385834797</v>
       </c>
       <c r="AD6" t="n">
-        <v>273598.8255404825</v>
+        <v>333216.3645708574</v>
       </c>
       <c r="AE6" t="n">
-        <v>374349.983432791</v>
+        <v>455921.3304743459</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.456641386464087e-06</v>
+        <v>3.567458503934559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.57523148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>338622.5464174662</v>
+        <v>412408.8385834798</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.7420580674809</v>
+        <v>316.8307037657002</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.6000075601123</v>
+        <v>433.5017464763937</v>
       </c>
       <c r="AC7" t="n">
-        <v>328.8985331543901</v>
+        <v>392.1289482162084</v>
       </c>
       <c r="AD7" t="n">
-        <v>265742.0580674809</v>
+        <v>316830.7037657002</v>
       </c>
       <c r="AE7" t="n">
-        <v>363600.0075601123</v>
+        <v>433501.7464763938</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.498757068925469e-06</v>
+        <v>3.62861759307704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>328898.5331543901</v>
+        <v>392128.9482162084</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>258.9050718504022</v>
+        <v>309.9937175486215</v>
       </c>
       <c r="AB8" t="n">
-        <v>354.245341391361</v>
+        <v>424.1470803076425</v>
       </c>
       <c r="AC8" t="n">
-        <v>320.436663195428</v>
+        <v>383.6670782572464</v>
       </c>
       <c r="AD8" t="n">
-        <v>258905.0718504022</v>
+        <v>309993.7175486215</v>
       </c>
       <c r="AE8" t="n">
-        <v>354245.341391361</v>
+        <v>424147.0803076425</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.528435547313971e-06</v>
+        <v>3.671715759823832e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.21643518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>320436.663195428</v>
+        <v>383667.0782572464</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.8982777627877</v>
+        <v>302.9869234610101</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.6583366025854</v>
+        <v>414.5600755190339</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.764628688351</v>
+        <v>374.9950437502168</v>
       </c>
       <c r="AD9" t="n">
-        <v>251898.2777627877</v>
+        <v>302986.9234610101</v>
       </c>
       <c r="AE9" t="n">
-        <v>344658.3366025854</v>
+        <v>414560.0755190339</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.553576848250994e-06</v>
+        <v>3.708225178057176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.09490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>311764.628688351</v>
+        <v>374995.0437502168</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.2868736514802</v>
+        <v>300.3755193497026</v>
       </c>
       <c r="AB10" t="n">
-        <v>341.0852982904779</v>
+        <v>410.9870372069245</v>
       </c>
       <c r="AC10" t="n">
-        <v>308.532596137959</v>
+        <v>371.7630111998244</v>
       </c>
       <c r="AD10" t="n">
-        <v>249286.8736514802</v>
+        <v>300375.5193497026</v>
       </c>
       <c r="AE10" t="n">
-        <v>341085.2982904778</v>
+        <v>410987.0372069245</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.567401894838443e-06</v>
+        <v>3.728301482351096e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH10" t="n">
-        <v>308532.596137959</v>
+        <v>371763.0111998244</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.7183863986563</v>
+        <v>223.4427828444628</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.6891601848495</v>
+        <v>305.7242730875165</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.0044403357078</v>
+        <v>276.5463775508466</v>
       </c>
       <c r="AD2" t="n">
-        <v>173718.3863986563</v>
+        <v>223442.7828444628</v>
       </c>
       <c r="AE2" t="n">
-        <v>237689.1601848495</v>
+        <v>305724.2730875165</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.802244416116404e-06</v>
+        <v>4.671174486628847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215004.4403357078</v>
+        <v>276546.3775508465</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9929430395788</v>
+        <v>349.4479299915342</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.3081617849282</v>
+        <v>478.1300743690435</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.9622600286283</v>
+        <v>432.4980111310352</v>
       </c>
       <c r="AD2" t="n">
-        <v>285992.9430395788</v>
+        <v>349447.9299915342</v>
       </c>
       <c r="AE2" t="n">
-        <v>391308.1617849282</v>
+        <v>478130.0743690435</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280324166432549e-06</v>
+        <v>3.470440448566037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.91898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>353962.2600286283</v>
+        <v>432498.0111310352</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.7851612260992</v>
+        <v>279.2976072022414</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.1927302939392</v>
+        <v>382.1473079149127</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.9701258589723</v>
+        <v>345.6757051946279</v>
       </c>
       <c r="AD3" t="n">
-        <v>223785.1612260992</v>
+        <v>279297.6072022414</v>
       </c>
       <c r="AE3" t="n">
-        <v>306192.7302939392</v>
+        <v>382147.3079149127</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.675966787796622e-06</v>
+        <v>4.072571573855407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>276970.1258589723</v>
+        <v>345675.7051946279</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.964562929355</v>
+        <v>254.534557438229</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.1780456319214</v>
+        <v>348.2654107589734</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.1519303997773</v>
+        <v>315.0274487498148</v>
       </c>
       <c r="AD4" t="n">
-        <v>206964.562929355</v>
+        <v>254534.557438229</v>
       </c>
       <c r="AE4" t="n">
-        <v>283178.0456319214</v>
+        <v>348265.4107589733</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812883825709984e-06</v>
+        <v>4.280946520482294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.09490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>256151.9303997773</v>
+        <v>315027.4487498148</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.7731392289272</v>
+        <v>254.3431337378012</v>
       </c>
       <c r="AB5" t="n">
-        <v>282.9161312799786</v>
+        <v>348.0034964070305</v>
       </c>
       <c r="AC5" t="n">
-        <v>255.9150127859847</v>
+        <v>314.7905311360222</v>
       </c>
       <c r="AD5" t="n">
-        <v>206773.1392289272</v>
+        <v>254343.1337378012</v>
       </c>
       <c r="AE5" t="n">
-        <v>282916.1312799786</v>
+        <v>348003.4964070305</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.815823221113878e-06</v>
+        <v>4.285420005811339e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>255915.0127859847</v>
+        <v>314790.5311360222</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.6582526990022</v>
+        <v>427.9027705772311</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.2050206957071</v>
+        <v>585.4754484416825</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.8479099486286</v>
+        <v>529.5984933623604</v>
       </c>
       <c r="AD2" t="n">
-        <v>362658.2526990022</v>
+        <v>427902.7705772311</v>
       </c>
       <c r="AE2" t="n">
-        <v>496205.0206957071</v>
+        <v>585475.4484416825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995098850259078e-06</v>
+        <v>2.978504409181482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41782407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>448847.9099486286</v>
+        <v>529598.4933623604</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.0325051583038</v>
+        <v>326.0254610289299</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.1021424340568</v>
+        <v>446.0824190080062</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.9709905947512</v>
+        <v>403.5089390184886</v>
       </c>
       <c r="AD3" t="n">
-        <v>269032.5051583038</v>
+        <v>326025.4610289299</v>
       </c>
       <c r="AE3" t="n">
-        <v>368102.1424340567</v>
+        <v>446082.4190080062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.443372074862667e-06</v>
+        <v>3.647736300035616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.40277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>332970.9905947512</v>
+        <v>403508.9390184886</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.4918658146807</v>
+        <v>296.5700730313304</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.6833364429276</v>
+        <v>405.7802576696847</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.4096987193631</v>
+        <v>367.0531593938578</v>
       </c>
       <c r="AD4" t="n">
-        <v>239491.8658146807</v>
+        <v>296570.0730313304</v>
       </c>
       <c r="AE4" t="n">
-        <v>327683.3364429276</v>
+        <v>405780.2576696847</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.610908532542796e-06</v>
+        <v>3.897853269344736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>296409.6987193631</v>
+        <v>367053.1593938578</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.07794208216</v>
+        <v>275.9900176543293</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.6980583284383</v>
+        <v>377.621717974907</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.0454717091278</v>
+        <v>341.582031206791</v>
       </c>
       <c r="AD5" t="n">
-        <v>227077.94208216</v>
+        <v>275990.0176543293</v>
       </c>
       <c r="AE5" t="n">
-        <v>310698.0583284383</v>
+        <v>377621.717974907</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696714366949241e-06</v>
+        <v>4.025953717139543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.14699074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>281045.4717091278</v>
+        <v>341582.0312067911</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.7798662806465</v>
+        <v>270.6919418528158</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.4489972822031</v>
+        <v>370.3726569286681</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.4882508750219</v>
+        <v>335.024810372684</v>
       </c>
       <c r="AD6" t="n">
-        <v>221779.8662806465</v>
+        <v>270691.9418528158</v>
       </c>
       <c r="AE6" t="n">
-        <v>303448.9972822031</v>
+        <v>370372.6569286681</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.721222233900422e-06</v>
+        <v>4.062541773798613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>274488.2508750219</v>
+        <v>335024.810372684</v>
       </c>
     </row>
   </sheetData>
